--- a/Task Allocation/Task Allocation Table.xlsx
+++ b/Task Allocation/Task Allocation Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Concordia\Fall 19\SRS\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\OneDrive\Desktop\SRS_fall2019\Task Allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3789E278-6B93-4DA5-89CF-88298839ECC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6352CD2-3803-45B4-92C2-D8F292BE951E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4887670-238D-479E-B7FC-E90B32C19E3C}"/>
   </bookViews>
@@ -31,31 +31,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t xml:space="preserve">Sr No. </t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Student ID</t>
   </si>
   <si>
-    <t>Task Allocated</t>
+    <t>Birjot</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Gaganpreet</t>
+  </si>
+  <si>
+    <t>Jaskaran Singh</t>
+  </si>
+  <si>
+    <t>Sodhi</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Surve</t>
+  </si>
+  <si>
+    <t>Kalpesh</t>
+  </si>
+  <si>
+    <t>Thakare</t>
+  </si>
+  <si>
+    <t>Sai Abishek</t>
+  </si>
+  <si>
+    <t>Thorikonda</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Task Allocation</t>
+  </si>
+  <si>
+    <t>1.Brief Description</t>
+  </si>
+  <si>
+    <t>1.Context of Use Table</t>
+  </si>
+  <si>
+    <t>1. Context of use Model Details Description</t>
+  </si>
+  <si>
+    <t>1. Domain Model Diagram and Concepts Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Domain Model Relationship Description </t>
+  </si>
+  <si>
+    <t>1 . UML Use case Diagram for Use Case Models Positive and Negative Use cases</t>
+  </si>
+  <si>
+    <t>2. Use case Description UC1</t>
+  </si>
+  <si>
+    <t>2. Use case Description UC6</t>
+  </si>
+  <si>
+    <t>2. Use case Description UC3</t>
+  </si>
+  <si>
+    <t>3. Use case Description UC8</t>
+  </si>
+  <si>
+    <t>3. Use case Description UC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Interview </t>
+  </si>
+  <si>
+    <t>3. Interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Use case Description UC4 </t>
+  </si>
+  <si>
+    <t>2. Use case Description UC7  and system sequence diagram for recharge card use case</t>
+  </si>
+  <si>
+    <t>2. Use case Description UC5 and system sequence diagram for recharge card use case</t>
+  </si>
+  <si>
+    <t>3. 2 Interviews one for TA and another for a random user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Latex Code Part </t>
+  </si>
+  <si>
+    <t>4. Latex Code Part</t>
+  </si>
+  <si>
+    <t>4. Interview</t>
+  </si>
+  <si>
+    <t>5. Latex Code Part</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,12 +179,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,37 +524,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE55AC2-573C-44C1-BBB8-7D228E18392D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="118.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="D2" s="2">
+        <v>40096078</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40042813</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40080301</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>40087470</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>40081751</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>40071051</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
